--- a/modelisation/Fonctionnalités.xlsx
+++ b/modelisation/Fonctionnalités.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="100" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="5775" yWindow="105" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ID Fonction</t>
   </si>
@@ -115,13 +115,25 @@
   </si>
   <si>
     <t>Mettre à jour la BDD</t>
+  </si>
+  <si>
+    <t>Être afficher en mode pleine écran/ fenetré</t>
+  </si>
+  <si>
+    <t>Gérer la consommation de consommables</t>
+  </si>
+  <si>
+    <t>consommable = bandage, clous, seringue, médicaments, etc</t>
+  </si>
+  <si>
+    <t>Gestion de statistique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,19 +537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="77.5" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -565,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="31.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -576,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="31.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,7 +621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="31.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -620,7 +632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="31.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -642,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="31.5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -664,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="47.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -734,17 +746,28 @@
       <c r="A18">
         <v>18</v>
       </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="1"/>
     </row>
